--- a/data/TR/results/PVRP_All_Short_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Short_Solutions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="13">
   <si>
     <t>Filename</t>
   </si>
@@ -2634,49 +2634,49 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>520.0</v>
+        <v>540.0</v>
       </c>
       <c r="E7" t="n">
         <v>-1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="J7" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="K7" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="M7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="O7" t="n">
         <v>6.0</v>
       </c>
-      <c r="N7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>26.0</v>
-      </c>
       <c r="P7" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="R7" t="n">
-        <v>3.0</v>
+        <v>28.0</v>
       </c>
       <c r="S7" t="n">
         <v>36.0</v>
@@ -2685,34 +2685,34 @@
         <v>20.0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="V7" t="n">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
       <c r="W7" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="X7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>39.0</v>
       </c>
-      <c r="Y7" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>38.0</v>
-      </c>
       <c r="AA7" t="n">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="AE7" t="n">
         <v>-1.0</v>
@@ -2729,88 +2729,88 @@
         <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>417.0</v>
+        <v>397.0</v>
       </c>
       <c r="E8" t="n">
         <v>-1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="G8" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="H8" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="I8" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="J8" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="K8" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="L8" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="M8" t="n">
         <v>50.0</v>
       </c>
       <c r="N8" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O8" t="n">
         <v>21.0</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>29.0</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>16.0</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="X8" t="n">
         <v>11.0</v>
       </c>
-      <c r="R8" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>18.0</v>
       </c>
-      <c r="Y8" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>24.0</v>
-      </c>
       <c r="AC8" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="AF8" t="n">
         <v>-1.0</v>
@@ -2827,49 +2827,49 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>520.0</v>
+        <v>540.0</v>
       </c>
       <c r="E9" t="n">
         <v>-1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
       <c r="G9" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="I9" t="n">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="K9" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="L9" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="M9" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="O9" t="n">
         <v>6.0</v>
       </c>
-      <c r="N9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>26.0</v>
-      </c>
       <c r="P9" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.0</v>
+        <v>28.0</v>
       </c>
       <c r="S9" t="n">
         <v>36.0</v>
@@ -2878,34 +2878,34 @@
         <v>20.0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="V9" t="n">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
       <c r="W9" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="X9" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z9" t="n">
         <v>39.0</v>
       </c>
-      <c r="Y9" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>38.0</v>
-      </c>
       <c r="AA9" t="n">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="AE9" t="n">
         <v>-1.0</v>
@@ -2922,88 +2922,88 @@
         <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>417.0</v>
+        <v>397.0</v>
       </c>
       <c r="E10" t="n">
         <v>-1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="G10" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="I10" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="L10" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="M10" t="n">
         <v>50.0</v>
       </c>
       <c r="N10" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>21.0</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>29.0</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>16.0</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="X10" t="n">
         <v>11.0</v>
       </c>
-      <c r="R10" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>18.0</v>
       </c>
-      <c r="Y10" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>24.0</v>
-      </c>
       <c r="AC10" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="AF10" t="n">
         <v>-1.0</v>
@@ -3020,49 +3020,49 @@
         <v>4.0</v>
       </c>
       <c r="D11" t="n">
-        <v>520.0</v>
+        <v>540.0</v>
       </c>
       <c r="E11" t="n">
         <v>-1.0</v>
       </c>
       <c r="F11" t="n">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
       <c r="G11" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="H11" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="I11" t="n">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="J11" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="K11" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="L11" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="M11" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>6.0</v>
       </c>
-      <c r="N11" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>26.0</v>
-      </c>
       <c r="P11" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.0</v>
+        <v>28.0</v>
       </c>
       <c r="S11" t="n">
         <v>36.0</v>
@@ -3071,34 +3071,34 @@
         <v>20.0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
       <c r="W11" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="X11" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z11" t="n">
         <v>39.0</v>
       </c>
-      <c r="Y11" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>38.0</v>
-      </c>
       <c r="AA11" t="n">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="AE11" t="n">
         <v>-1.0</v>
@@ -3115,88 +3115,88 @@
         <v>5.0</v>
       </c>
       <c r="D12" t="n">
-        <v>417.0</v>
+        <v>397.0</v>
       </c>
       <c r="E12" t="n">
         <v>-1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="G12" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="H12" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="I12" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="K12" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="L12" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="M12" t="n">
         <v>50.0</v>
       </c>
       <c r="N12" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O12" t="n">
         <v>21.0</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>29.0</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>16.0</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="X12" t="n">
         <v>11.0</v>
       </c>
-      <c r="R12" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>18.0</v>
       </c>
-      <c r="Y12" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>24.0</v>
-      </c>
       <c r="AC12" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="AF12" t="n">
         <v>-1.0</v>

--- a/data/TR/results/PVRP_All_Short_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Short_Solutions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="13">
   <si>
     <t>Filename</t>
   </si>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B7" t="n">
         <v>-1.0</v>
@@ -2634,93 +2634,87 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>540.0</v>
+        <v>469.0</v>
       </c>
       <c r="E7" t="n">
         <v>-1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="H7" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="I7" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="J7" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="K7" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="L7" t="n">
-        <v>7.0</v>
+        <v>26.0</v>
       </c>
       <c r="M7" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="N7" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="O7" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="P7" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="R7" t="n">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="S7" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="T7" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="U7" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="W7" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="X7" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="AE7" t="n">
         <v>-1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B8" t="n">
         <v>-1.0</v>
@@ -2729,96 +2723,102 @@
         <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>397.0</v>
+        <v>468.0</v>
       </c>
       <c r="E8" t="n">
         <v>-1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="H8" t="n">
-        <v>5.0</v>
+        <v>47.0</v>
       </c>
       <c r="I8" t="n">
-        <v>49.0</v>
+        <v>18.0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="K8" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="V8" t="n">
         <v>30.0</v>
       </c>
-      <c r="L8" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="W8" t="n">
         <v>16.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>27.0</v>
       </c>
       <c r="X8" t="n">
         <v>11.0</v>
       </c>
       <c r="Y8" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>38.0</v>
       </c>
-      <c r="Z8" t="n">
-        <v>37.0</v>
-      </c>
       <c r="AA8" t="n">
-        <v>17.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>18.0</v>
+        <v>39.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>41.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD8" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AF8" t="n">
         <v>19.0</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
         <v>40.0</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
         <v>-1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9" t="n">
         <v>-1.0</v>
@@ -2827,93 +2827,87 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>540.0</v>
+        <v>469.0</v>
       </c>
       <c r="E9" t="n">
         <v>-1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="G9" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="H9" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="I9" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="J9" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="K9" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="L9" t="n">
-        <v>7.0</v>
+        <v>26.0</v>
       </c>
       <c r="M9" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="O9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="P9" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="S9" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="T9" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="U9" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="V9" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="W9" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="X9" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="AE9" t="n">
         <v>-1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B10" t="n">
         <v>-1.0</v>
@@ -2922,96 +2916,102 @@
         <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>397.0</v>
+        <v>468.0</v>
       </c>
       <c r="E10" t="n">
         <v>-1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.0</v>
+        <v>47.0</v>
       </c>
       <c r="I10" t="n">
-        <v>49.0</v>
+        <v>18.0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="K10" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="V10" t="n">
         <v>30.0</v>
       </c>
-      <c r="L10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="W10" t="n">
         <v>16.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>27.0</v>
       </c>
       <c r="X10" t="n">
         <v>11.0</v>
       </c>
       <c r="Y10" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>38.0</v>
       </c>
-      <c r="Z10" t="n">
-        <v>37.0</v>
-      </c>
       <c r="AA10" t="n">
-        <v>17.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.0</v>
+        <v>39.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>41.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD10" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AF10" t="n">
         <v>19.0</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
         <v>40.0</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
         <v>-1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B11" t="n">
         <v>-1.0</v>
@@ -3020,93 +3020,87 @@
         <v>4.0</v>
       </c>
       <c r="D11" t="n">
-        <v>540.0</v>
+        <v>469.0</v>
       </c>
       <c r="E11" t="n">
         <v>-1.0</v>
       </c>
       <c r="F11" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="G11" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="H11" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="K11" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="L11" t="n">
-        <v>7.0</v>
+        <v>26.0</v>
       </c>
       <c r="M11" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="N11" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="O11" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="P11" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="R11" t="n">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="S11" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="T11" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="V11" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="W11" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="X11" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="AE11" t="n">
         <v>-1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B12" t="n">
         <v>-1.0</v>
@@ -3115,90 +3109,96 @@
         <v>5.0</v>
       </c>
       <c r="D12" t="n">
-        <v>397.0</v>
+        <v>468.0</v>
       </c>
       <c r="E12" t="n">
         <v>-1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="G12" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="H12" t="n">
-        <v>5.0</v>
+        <v>47.0</v>
       </c>
       <c r="I12" t="n">
-        <v>49.0</v>
+        <v>18.0</v>
       </c>
       <c r="J12" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="K12" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="V12" t="n">
         <v>30.0</v>
       </c>
-      <c r="L12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="W12" t="n">
         <v>16.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>27.0</v>
       </c>
       <c r="X12" t="n">
         <v>11.0</v>
       </c>
       <c r="Y12" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="Z12" t="n">
         <v>38.0</v>
       </c>
-      <c r="Z12" t="n">
-        <v>37.0</v>
-      </c>
       <c r="AA12" t="n">
-        <v>17.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.0</v>
+        <v>39.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>41.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD12" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>19.0</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AG12" t="n">
         <v>40.0</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AH12" t="n">
         <v>-1.0</v>
       </c>
     </row>

--- a/data/TR/results/PVRP_All_Short_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Short_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Filename</t>
   </si>

--- a/data/TR/results/PVRP_All_Short_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Short_Solutions.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="13">
   <si>
     <t>Filename</t>
   </si>

--- a/data/TR/results/PVRP_All_Short_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Short_Solutions.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="pr10.xlsx" r:id="rId3" sheetId="1"/>
     <sheet name="p11.xlsx" r:id="rId4" sheetId="2"/>
+    <sheet name="p1.xlsx" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="16">
   <si>
     <t>Filename</t>
   </si>
@@ -52,6 +53,15 @@
   </si>
   <si>
     <t>edu.sru.thangiah.zeus.tr.TRSolutionHierarchy.Heuristics.Selection.TRChooseByHighestDemand</t>
+  </si>
+  <si>
+    <t>p1.xlsx</t>
+  </si>
+  <si>
+    <t>edu.sru.thangiah.zeus.tr.TRSolutionHierarchy.Heuristics.Selection.TRSmallestAngleToDepot</t>
+  </si>
+  <si>
+    <t>edu.sru.thangiah.zeus.tr.TRSolutionHierarchy.Heuristics.Selection.TRSmallestAngleClosestDistanceToDepot</t>
   </si>
 </sst>
 </file>
@@ -4864,4 +4874,333 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/TR/results/PVRP_All_Short_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Short_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="11">
   <si>
     <t>Filename</t>
   </si>
@@ -149,7 +149,7 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" t="n">
         <v>-1.0</v>
@@ -169,7 +169,7 @@
         <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" t="n">
         <v>-1.0</v>
@@ -189,7 +189,7 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E9" t="n">
         <v>-1.0</v>
@@ -209,7 +209,7 @@
         <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" t="n">
         <v>-1.0</v>
@@ -229,7 +229,7 @@
         <v>4.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E11" t="n">
         <v>-1.0</v>
@@ -249,7 +249,7 @@
         <v>5.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E12" t="n">
         <v>-1.0</v>
@@ -269,7 +269,7 @@
         <v>6.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E13" t="n">
         <v>-1.0</v>

--- a/data/TR/results/PVRP_All_Short_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Short_Solutions.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="pr10.xlsx" r:id="rId3" sheetId="1"/>
     <sheet name="p11.xlsx" r:id="rId4" sheetId="2"/>
+    <sheet name="p9.xlsx" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="15">
   <si>
     <t>Filename</t>
   </si>
@@ -52,6 +53,12 @@
   </si>
   <si>
     <t>edu.sru.thangiah.zeus.tr.TRSolutionHierarchy.Heuristics.Selection.TRChooseByHighestDemand</t>
+  </si>
+  <si>
+    <t>p9.xlsx</t>
+  </si>
+  <si>
+    <t>edu.sru.thangiah.zeus.tr.TRSolutionHierarchy.Heuristics.Selection.TRSmallestAngleClosestDistanceToDepot</t>
   </si>
 </sst>
 </file>
@@ -4864,4 +4871,520 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1458.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/TR/results/PVRP_All_Short_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Short_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Filename</t>
   </si>
@@ -149,12 +149,24 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>125.0</v>
       </c>
       <c r="E7" t="n">
         <v>-1.0</v>
       </c>
       <c r="F7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J7" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -169,12 +181,33 @@
         <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>141.0</v>
       </c>
       <c r="E8" t="n">
         <v>-1.0</v>
       </c>
       <c r="F8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -189,12 +222,36 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>150.0</v>
       </c>
       <c r="E9" t="n">
         <v>-1.0</v>
       </c>
       <c r="F9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="N9" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -209,12 +266,39 @@
         <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>144.0</v>
       </c>
       <c r="E10" t="n">
         <v>-1.0</v>
       </c>
       <c r="F10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -229,12 +313,33 @@
         <v>4.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="E11" t="n">
         <v>-1.0</v>
       </c>
       <c r="F11" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M11" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -249,12 +354,30 @@
         <v>5.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
       <c r="E12" t="n">
         <v>-1.0</v>
       </c>
       <c r="F12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L12" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -269,12 +392,30 @@
         <v>6.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>151.0</v>
       </c>
       <c r="E13" t="n">
         <v>-1.0</v>
       </c>
       <c r="F13" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L13" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -289,12 +430,36 @@
         <v>7.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>153.0</v>
       </c>
       <c r="E14" t="n">
         <v>-1.0</v>
       </c>
       <c r="F14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N14" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -309,12 +474,30 @@
         <v>8.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>153.0</v>
       </c>
       <c r="E15" t="n">
         <v>-1.0</v>
       </c>
       <c r="F15" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L15" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -329,12 +512,33 @@
         <v>9.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="E16" t="n">
         <v>-1.0</v>
       </c>
       <c r="F16" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="M16" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -349,12 +553,33 @@
         <v>10.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>124.0</v>
       </c>
       <c r="E17" t="n">
         <v>-1.0</v>
       </c>
       <c r="F17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="M17" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -369,12 +594,42 @@
         <v>11.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>157.0</v>
       </c>
       <c r="E18" t="n">
         <v>-1.0</v>
       </c>
       <c r="F18" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P18" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -389,12 +644,33 @@
         <v>12.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>151.0</v>
       </c>
       <c r="E19" t="n">
         <v>-1.0</v>
       </c>
       <c r="F19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M19" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -409,12 +685,36 @@
         <v>13.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>159.0</v>
       </c>
       <c r="E20" t="n">
         <v>-1.0</v>
       </c>
       <c r="F20" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N20" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -429,12 +729,24 @@
         <v>14.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>125.0</v>
       </c>
       <c r="E21" t="n">
         <v>-1.0</v>
       </c>
       <c r="F21" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J21" t="n">
         <v>-1.0</v>
       </c>
     </row>

--- a/data/TR/results/PVRP_All_Short_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Short_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Filename</t>
   </si>
